--- a/scripts/meta/JIRA-161-DSRMWS-FORM_DATA_CLEANUP/DSRMWS-161.xlsx
+++ b/scripts/meta/JIRA-161-DSRMWS-FORM_DATA_CLEANUP/DSRMWS-161.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\jira161-DSRMWS-161\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D5A3B2-19F9-41D7-853F-F5569C4A802D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E21B79-745F-4D45-A9F2-4516B9842AB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0AC35818-EF86-46E5-A9C9-DA803EC9BE79}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>Records#</t>
   </si>
@@ -1472,15 +1472,323 @@
 and good.qc_idseq is null);</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">226 records to be clean up 
+    <t>delete  from sbrext.quest_contents_ext where qc_idseq in(
+select del.qc_idseq 
+from sbrext.quest_contents_ext del ,
+(select m.qc_idseq from 
+sbrext.quest_contents_ext m,
+sbrext.quest_contents_ext f
+where f.qc_idseq=m.dn_crf_idseq
+and f.qtl_name in('CRF','TEMPLATE')
+and m.qtl_name = 'MODULE'
+) good
+where del.qtl_name = 'MODULE'
+and good.qc_idseq(+)=del.QC_IDSEQ 
+ and good.qc_idseq is null) ;</t>
+  </si>
+  <si>
+    <t>FIRST PHASE OF CLEANING</t>
+  </si>
+  <si>
+    <t>SECOND PHASE OF CLEANING</t>
+  </si>
+  <si>
+    <t>QC_RECS_EXT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2662969 tecords </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(*) from sbrext.QC_RECS_EXT;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2661725 records to be migrated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(*) from (
+select  P_QC_IDSEQ,C_QC_IDSEQ  
+from sbrext.QC_RECS_EXT,
+sbrext.quest_contents_ext c,
+sbrext.quest_contents_ext p
+where P_QC_IDSEQ=p.qc_idseq
+and C_QC_IDSEQ =c.qc_idseq)</t>
+    </r>
+  </si>
+  <si>
+    <t>delete from sbrext.QC_RECS_EXT where QR_IDSEQ in(
+select  del.QR_IDSEQ from sbrext.QC_RECS_EXT del,
+ (
+select  QR_IDSEQ  
+from sbrext.QC_RECS_EXT,
+sbrext.quest_contents_ext c,
+sbrext.quest_contents_ext p
+where P_QC_IDSEQ=p.qc_idseq
+and C_QC_IDSEQ =c.qc_idseq) good
+where good.QR_IDSEQ(+)=del.QR_IDSEQ
+and good.QR_IDSEQ is null);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1244 records to be cleanup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(*) from sbrext.QC_RECS_EXT where QR_IDSEQ in(
+select  del.QR_IDSEQ from sbrext.QC_RECS_EXT del,
+ (
+select  QR_IDSEQ 
+from sbrext.QC_RECS_EXT,
+sbrext.quest_contents_ext c,
+sbrext.quest_contents_ext p
+where P_QC_IDSEQ=p.qc_idseq
+and C_QC_IDSEQ =c.qc_idseq) good
+where good.QR_IDSEQ(+)=del.QR_IDSEQ
+and good.QR_IDSEQ is null);</t>
+    </r>
+  </si>
+  <si>
+    <t>QUEST_VV_EXT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>218296 records to be migrated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(*) from (
+select  QV_IDSEQ 
+from sbrext.QUEST_VV_EXT,
+sbrext.quest_contents_ext q,
+(select*from sbrext.quest_contents_ext   where  qtl_name = 'VALID_VALUE') v
+where 
+ QUEST_IDSEQ =q.qc_idseq
+and q.qtl_name = 'QUESTION'
+and VV_IDSEQ=v.qc_idseq(+)
+);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>218296 totalt numver of records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(*)from QUEST_VV_EXT;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>delete from sbrext.QUEST_VV_EXT where QV_IDSEQ in(
+select  del.QV_IDSEQ 
+from sbrext.QUEST_VV_EXT del,
+(
+select  QV_IDSEQ 
+from sbrext.QUEST_VV_EXT,
+sbrext.quest_contents_ext q,
+(select*from sbrext.quest_contents_ext   where  qtl_name = 'VALID_VALUE') v
+where 
+ QUEST_IDSEQ =q.qc_idseq
+and q.qtl_name = 'QUESTION'
+and VV_IDSEQ=v.qc_idseq(+)
+)good
+where del.QV_IDSEQ =good.QV_IDSEQ(+)
+and good.QV_IDSEQ is null);</t>
+  </si>
+  <si>
+    <t>select*from sbrext.QUEST_VV_EXT where QV_IDSEQ in(
+select  del.QV_IDSEQ 
+from sbrext.QUEST_VV_EXT del,
+(
+select  QV_IDSEQ 
+from sbrext.QUEST_VV_EXT,
+sbrext.quest_contents_ext q,
+(select*from sbrext.quest_contents_ext   where  qtl_name = 'VALID_VALUE') v
+where 
+ QUEST_IDSEQ =q.qc_idseq
+and q.qtl_name = 'QUESTION'
+and VV_IDSEQ=v.qc_idseq(+)
+)good
+where del.QV_IDSEQ =good.QV_IDSEQ(+)
+and good.QV_IDSEQ is null);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7142 records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(foot.qc_idseq) from
+sbrext.quest_contents_ext foot  
+where foot.qtl_name= 'FORM_INSTR' ;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>3d PHASE OF CLEANING</t>
+  </si>
+  <si>
+    <t>delete from sbrext.VALID_VALUES_ATT_EXT 
+where  qc_idseq in
+(select qc_idseq from sbrext.quest_contents_ext where qtl_name = 'VALID_VALUE'
+ MINUS
+select vv.qc_idseq from 
+sbrext.quest_contents_ext vv,
+sbrext.quest_contents_ext q,
+sbrext.quest_contents_ext m,
+sbrext.quest_contents_ext f
+where f.qc_idseq=m.dn_crf_idseq
+and q.P_MOD_IDSEQ=m.QC_IDSEQ
+and vv.P_QST_IDSEQ=q.QC_IDSEQ
+and f.qtl_name in('CRF','TEMPLATE')
+and m.qtl_name = 'MODULE'
+and q.qtl_name = 'QUESTION'
+and vv.qtl_name = 'VALID_VALUE');</t>
+  </si>
+  <si>
+    <t>delete from
+sbrext.quest_contents_ext foot  
+where foot.qtl_name= 'FORM_INSTR' 
+and dn_crf_idseq not in 
+(select qc_idseq from sbrext.quest_contents_ext 
+where qtl_name in('CRF','TEMPLATE') ) ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from
+sbrext.quest_contents_ext foot  
+where foot.qtl_name= 'INSTRUCTIONS' 
+and dn_crf_idseq not in 
+(select qc_idseq from sbrext.quest_contents_ext 
+where qtl_name in('CRF','TEMPLATE') ) ;
+</t>
+  </si>
+  <si>
+    <t>delete from
+sbrext.quest_contents_ext foot  
+where foot.qtl_name= 'FOOTER' 
+and dn_crf_idseq not in 
+(select qc_idseq from sbrext.quest_contents_ext 
+where qtl_name in('CRF','TEMPLATE') ) ;</t>
+  </si>
+  <si>
+    <t>delete from 
+sbrext.quest_contents_ext  del,
+(select instr.qc_idseq from
+sbrext.quest_contents_ext instr,
+sbrext.quest_contents_ext  m
+where instr.qtl_name= 'MODULE_INSTR' 
+and m.qtl_name ='MODULE'
+and instr.P_MOD_IDSEQ=m.QC_IDSEQ) good
+where del.qtl_name= 'MODULE_INSTR' 
+and good.QC_IDSEQ(+)=del.QC_IDSEQ
+and good.QC_IDSEQ is null  ;</t>
+  </si>
+  <si>
+    <t>delete from
+sbrext.quest_contents_ext foot  
+where foot.qtl_name= 'QUESTION_INSTR' 
+and p_qst_idseq not in 
+(select qc_idseq from sbrext.quest_contents_ext 
+where qtl_name ='QUESTION' ) ;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">230 records to be clean up 
 </t>
     </r>
     <r>
@@ -1511,312 +1819,147 @@
     </r>
   </si>
   <si>
-    <t>delete  from sbrext.quest_contents_ext where qc_idseq in(
-select del.qc_idseq 
-from sbrext.quest_contents_ext del ,
-(select m.qc_idseq from 
-sbrext.quest_contents_ext m,
-sbrext.quest_contents_ext f
-where f.qc_idseq=m.dn_crf_idseq
-and f.qtl_name in('CRF','TEMPLATE')
-and m.qtl_name = 'MODULE'
-) good
-where del.qtl_name = 'MODULE'
-and good.qc_idseq(+)=del.QC_IDSEQ 
- and good.qc_idseq is null) ;</t>
-  </si>
-  <si>
-    <t>FIRST PHASE OF CLEANING</t>
-  </si>
-  <si>
-    <t>SECOND PHASE OF CLEANING</t>
-  </si>
-  <si>
-    <t>QC_RECS_EXT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2662969 tecords </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-select count(*) from sbrext.QC_RECS_EXT;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2661725 records to be migrated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-select count(*) from (
-select  P_QC_IDSEQ,C_QC_IDSEQ  
-from sbrext.QC_RECS_EXT,
-sbrext.quest_contents_ext c,
-sbrext.quest_contents_ext p
-where P_QC_IDSEQ=p.qc_idseq
-and C_QC_IDSEQ =c.qc_idseq)</t>
-    </r>
-  </si>
-  <si>
-    <t>delete from sbrext.QC_RECS_EXT where QR_IDSEQ in(
-select  del.QR_IDSEQ from sbrext.QC_RECS_EXT del,
- (
-select  QR_IDSEQ  
-from sbrext.QC_RECS_EXT,
-sbrext.quest_contents_ext c,
-sbrext.quest_contents_ext p
-where P_QC_IDSEQ=p.qc_idseq
-and C_QC_IDSEQ =c.qc_idseq) good
-where good.QR_IDSEQ(+)=del.QR_IDSEQ
-and good.QR_IDSEQ is null);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1244 records to be cleanup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-select count(*) from sbrext.QC_RECS_EXT where QR_IDSEQ in(
-select  del.QR_IDSEQ from sbrext.QC_RECS_EXT del,
- (
-select  QR_IDSEQ 
-from sbrext.QC_RECS_EXT,
-sbrext.quest_contents_ext c,
-sbrext.quest_contents_ext p
-where P_QC_IDSEQ=p.qc_idseq
-and C_QC_IDSEQ =c.qc_idseq) good
-where good.QR_IDSEQ(+)=del.QR_IDSEQ
-and good.QR_IDSEQ is null);</t>
-    </r>
-  </si>
-  <si>
-    <t>QUEST_VV_EXT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>218296 records to be migrated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-select count(*) from (
-select  QV_IDSEQ 
-from sbrext.QUEST_VV_EXT,
-sbrext.quest_contents_ext q,
-(select*from sbrext.quest_contents_ext   where  qtl_name = 'VALID_VALUE') v
-where 
- QUEST_IDSEQ =q.qc_idseq
-and q.qtl_name = 'QUESTION'
-and VV_IDSEQ=v.qc_idseq(+)
-);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>218296 totalt numver of records</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-select count(*)from QUEST_VV_EXT;
-</t>
-    </r>
-  </si>
-  <si>
-    <t>delete from sbrext.QUEST_VV_EXT where QV_IDSEQ in(
-select  del.QV_IDSEQ 
-from sbrext.QUEST_VV_EXT del,
-(
-select  QV_IDSEQ 
-from sbrext.QUEST_VV_EXT,
-sbrext.quest_contents_ext q,
-(select*from sbrext.quest_contents_ext   where  qtl_name = 'VALID_VALUE') v
-where 
- QUEST_IDSEQ =q.qc_idseq
-and q.qtl_name = 'QUESTION'
-and VV_IDSEQ=v.qc_idseq(+)
-)good
-where del.QV_IDSEQ =good.QV_IDSEQ(+)
-and good.QV_IDSEQ is null);</t>
-  </si>
-  <si>
-    <t>select*from sbrext.QUEST_VV_EXT where QV_IDSEQ in(
-select  del.QV_IDSEQ 
-from sbrext.QUEST_VV_EXT del,
-(
-select  QV_IDSEQ 
-from sbrext.QUEST_VV_EXT,
-sbrext.quest_contents_ext q,
-(select*from sbrext.quest_contents_ext   where  qtl_name = 'VALID_VALUE') v
-where 
- QUEST_IDSEQ =q.qc_idseq
-and q.qtl_name = 'QUESTION'
-and VV_IDSEQ=v.qc_idseq(+)
-)good
-where del.QV_IDSEQ =good.QV_IDSEQ(+)
-and good.QV_IDSEQ is null);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7142 records</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1335 records to be clean up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
 select count(foot.qc_idseq) from
-sbrext.quest_contents_ext foot  
-where foot.qtl_name= 'FORM_INSTR' ;
-</t>
-    </r>
-  </si>
-  <si>
-    <t>3d PHASE OF CLEANING</t>
-  </si>
-  <si>
-    <t>delete from sbrext.VALID_VALUES_ATT_EXT 
-where  qc_idseq in
-(select qc_idseq from sbrext.quest_contents_ext where qtl_name = 'VALID_VALUE'
- MINUS
-select vv.qc_idseq from 
-sbrext.quest_contents_ext vv,
-sbrext.quest_contents_ext q,
-sbrext.quest_contents_ext m,
-sbrext.quest_contents_ext f
-where f.qc_idseq=m.dn_crf_idseq
-and q.P_MOD_IDSEQ=m.QC_IDSEQ
-and vv.P_QST_IDSEQ=q.QC_IDSEQ
-and f.qtl_name in('CRF','TEMPLATE')
-and m.qtl_name = 'MODULE'
-and q.qtl_name = 'QUESTION'
-and vv.qtl_name = 'VALID_VALUE');</t>
-  </si>
-  <si>
-    <t>delete from
-sbrext.quest_contents_ext foot  
-where foot.qtl_name= 'FORM_INSTR' 
-and dn_crf_idseq not in 
-(select qc_idseq from sbrext.quest_contents_ext 
-where qtl_name in('CRF','TEMPLATE') ) ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete from
-sbrext.quest_contents_ext foot  
-where foot.qtl_name= 'INSTRUCTIONS' 
-and dn_crf_idseq not in 
-(select qc_idseq from sbrext.quest_contents_ext 
-where qtl_name in('CRF','TEMPLATE') ) ;
-</t>
-  </si>
-  <si>
-    <t>delete from
-sbrext.quest_contents_ext foot  
-where foot.qtl_name= 'FOOTER' 
-and dn_crf_idseq not in 
-(select qc_idseq from sbrext.quest_contents_ext 
-where qtl_name in('CRF','TEMPLATE') ) ;</t>
-  </si>
-  <si>
-    <t>delete from 
-sbrext.quest_contents_ext  del,
-(select instr.qc_idseq from
-sbrext.quest_contents_ext instr,
-sbrext.quest_contents_ext  m
-where instr.qtl_name= 'MODULE_INSTR' 
-and m.qtl_name ='MODULE'
-and instr.P_MOD_IDSEQ=m.QC_IDSEQ) good
-where del.qtl_name= 'MODULE_INSTR' 
-and good.QC_IDSEQ(+)=del.QC_IDSEQ
-and good.QC_IDSEQ is null  ;</t>
-  </si>
-  <si>
-    <t>delete from
 sbrext.quest_contents_ext foot  
 where foot.qtl_name= 'QUESTION_INSTR' 
 and p_qst_idseq not in 
 (select qc_idseq from sbrext.quest_contents_ext 
 where qtl_name ='QUESTION' ) ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">483 records to be clean up  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(foot.qc_idseq) from
+sbrext.quest_contents_ext foot  
+where foot.qtl_name= 'VALUE_INSTR' 
+and P_VAL_IDSEQ not in 
+(select qc_idseq from sbrext.quest_contents_ext 
+where qtl_name ='VALID_VALUE' ) ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20278 records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(foot.qc_idseq)
+from sbrext.quest_contents_ext f,
+sbrext.quest_contents_ext foot
+ where 
+ foot.p_mod_idseq=f.qc_idseq
+     and  f.qtl_name ='MODULE'
+     and  foot.qtl_name ='MODULE_INSTR';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100914 records to be migrated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(foot.qc_idseq)
+from sbrext.quest_contents_ext f,
+sbrext.quest_contents_ext foot
+ where 
+ foot.p_qst_idseq=f.qc_idseq
+     and  f.qtl_name ='QUESTION'
+     and  foot.qtl_name ='QUESTION_INSTR';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46721 records to be migrated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(foot.qc_idseq)
+from sbrext.quest_contents_ext f,
+sbrext.quest_contents_ext foot
+ where 
+ foot.P_VAL_IDSEQ=f.qc_idseq
+     and  f.qtl_name ='VALID_VALUE'
+     and  foot.qtl_name ='VALUE_INSTR';</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2303,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51F5CE6-1BD3-4AF4-A464-18753080E158}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2344,7 +2487,7 @@
     </row>
     <row r="2" spans="1:7" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -2409,7 +2552,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2508,12 +2651,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="20" customFormat="1" ht="116" x14ac:dyDescent="0.35">
@@ -2524,7 +2667,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>34</v>
@@ -2536,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2560,7 +2703,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2584,7 +2727,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2599,16 +2742,16 @@
         <v>46</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2623,16 +2766,16 @@
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F26" s="1">
         <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2647,10 +2790,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F28" s="2">
         <v>12</v>
@@ -2661,43 +2804,43 @@
     </row>
     <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="232" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3088,6 +3231,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015063B70CFBA0A4EA9AA5837B994D482" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80eeefaa857b8f3276062b560f7c3d62">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87c39ab2-de71-4f76-8619-512a67de3903" xmlns:ns4="3c39e367-f821-4734-a86f-0cab7f942330" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a8efe39467735c6d8c9ecf731fd39a0" ns3:_="" ns4:_="">
     <xsd:import namespace="87c39ab2-de71-4f76-8619-512a67de3903"/>
@@ -3258,24 +3410,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFF3279-E9D1-43D7-B9AC-40860BDB247D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="87c39ab2-de71-4f76-8619-512a67de3903"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="87c39ab2-de71-4f76-8619-512a67de3903"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="3c39e367-f821-4734-a86f-0cab7f942330"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3285,6 +3428,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF1B9F5D-26D0-4BEE-86A8-FC87FCDE97A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A73C9BB3-7F85-4F6B-8716-DB2C4BDC0E40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3301,12 +3452,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF1B9F5D-26D0-4BEE-86A8-FC87FCDE97A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>